--- a/EnvNP_Brunei.xlsx
+++ b/EnvNP_Brunei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuvvvvv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD8A30E1-1AE4-C048-986B-01053D1437E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC41E3F-06BE-5244-8D63-A9A924861CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15320" xr2:uid="{810D5AE4-625C-0E4F-AED3-F6B8A6E7AB4A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Green Brunei</t>
   </si>
@@ -86,12 +86,42 @@
   <si>
     <t>Yes - governments</t>
   </si>
+  <si>
+    <t>Name of organisation</t>
+  </si>
+  <si>
+    <t>Description of organisation</t>
+  </si>
+  <si>
+    <t>Mission/ Objectives/ Purpose</t>
+  </si>
+  <si>
+    <t>Programmes/ projects</t>
+  </si>
+  <si>
+    <t>Funding sources</t>
+  </si>
+  <si>
+    <t>Collaboration with government / businesses</t>
+  </si>
+  <si>
+    <t>Choice of Climate action</t>
+  </si>
+  <si>
+    <t>No. of employees</t>
+  </si>
+  <si>
+    <t>Geographical focus</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,8 +149,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +167,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,81 +516,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794282AE-7745-FB4B-A167-6C49AA0E0404}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="328" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="328" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
+      <c r="H2" s="2">
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{3B9C912D-65D3-7846-9882-5610F4B8F3A7}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3B9C912D-65D3-7846-9882-5610F4B8F3A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EnvNP_Brunei.xlsx
+++ b/EnvNP_Brunei.xlsx
@@ -538,7 +538,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/greenbrunei/?hl=en', 'https://www.facebook.com/GreenBrunei/', 'https://twitter.com/greenbrunei?lang=en', 'https://www.tiktok.com/@greenbrunei', 'https://www.youtube.com/channel/UCKePH8GO4vEjsKz_upGji3Q']</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/p/Brunei-Nature-Society-100064392891699/', 'https://www.instagram.com/bruneinaturesociety/?hl=en']</t>
         </is>
       </c>
     </row>
